--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cxcl1-Cxcr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cxcl1-Cxcr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.79062366666667</v>
+        <v>16.158065</v>
       </c>
       <c r="H2">
-        <v>59.37187100000001</v>
+        <v>48.474195</v>
       </c>
       <c r="I2">
-        <v>0.04690933339254189</v>
+        <v>0.05027302757218571</v>
       </c>
       <c r="J2">
-        <v>0.04982137012915518</v>
+        <v>0.0511740544428244</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.03520433333333333</v>
+        <v>0.06325733333333333</v>
       </c>
       <c r="N2">
-        <v>0.105613</v>
+        <v>0.189772</v>
       </c>
       <c r="O2">
-        <v>0.005036388194404308</v>
+        <v>0.1747097484563341</v>
       </c>
       <c r="P2">
-        <v>0.005036388194404307</v>
+        <v>0.1747097484563341</v>
       </c>
       <c r="Q2">
-        <v>0.6967157124358889</v>
+        <v>1.022116103726667</v>
       </c>
       <c r="R2">
-        <v>6.270441411923001</v>
+        <v>9.19904493354</v>
       </c>
       <c r="S2">
-        <v>0.0002362536129055738</v>
+        <v>0.008783188001274913</v>
       </c>
       <c r="T2">
-        <v>0.0002509197603475245</v>
+        <v>0.008940606179196595</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.79062366666667</v>
+        <v>16.158065</v>
       </c>
       <c r="H3">
-        <v>59.37187100000001</v>
+        <v>48.474195</v>
       </c>
       <c r="I3">
-        <v>0.04690933339254189</v>
+        <v>0.05027302757218571</v>
       </c>
       <c r="J3">
-        <v>0.04982137012915518</v>
+        <v>0.0511740544428244</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.1703</v>
       </c>
       <c r="O3">
-        <v>0.008121130064547486</v>
+        <v>0.1567832460116018</v>
       </c>
       <c r="P3">
-        <v>0.008121130064547486</v>
+        <v>0.1567832460116018</v>
       </c>
       <c r="Q3">
-        <v>1.123447736811111</v>
+        <v>0.9172394898333334</v>
       </c>
       <c r="R3">
-        <v>10.1110296313</v>
+        <v>8.2551554085</v>
       </c>
       <c r="S3">
-        <v>0.0003809567977220533</v>
+        <v>0.007881968449598032</v>
       </c>
       <c r="T3">
-        <v>0.0004046058268128302</v>
+        <v>0.008023234367120441</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.79062366666667</v>
+        <v>16.158065</v>
       </c>
       <c r="H4">
-        <v>59.37187100000001</v>
+        <v>48.474195</v>
       </c>
       <c r="I4">
-        <v>0.04690933339254189</v>
+        <v>0.05027302757218571</v>
       </c>
       <c r="J4">
-        <v>0.04982137012915518</v>
+        <v>0.0511740544428244</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.2486943333333333</v>
+        <v>0.242047</v>
       </c>
       <c r="N4">
-        <v>0.7460829999999999</v>
+        <v>0.7261409999999999</v>
       </c>
       <c r="O4">
-        <v>0.03557860881942326</v>
+        <v>0.6685070055320641</v>
       </c>
       <c r="P4">
-        <v>0.03557860881942326</v>
+        <v>0.6685070055320642</v>
       </c>
       <c r="Q4">
-        <v>4.921815959032556</v>
+        <v>3.911011159055</v>
       </c>
       <c r="R4">
-        <v>44.296343631293</v>
+        <v>35.199100431495</v>
       </c>
       <c r="S4">
-        <v>0.001668968822753157</v>
+        <v>0.03360787112131276</v>
       </c>
       <c r="T4">
-        <v>0.001772575038672911</v>
+        <v>0.03421021389650736</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.79062366666667</v>
+        <v>260.6166636666667</v>
       </c>
       <c r="H5">
-        <v>59.37187100000001</v>
+        <v>781.849991</v>
       </c>
       <c r="I5">
-        <v>0.04690933339254189</v>
+        <v>0.8108637215090658</v>
       </c>
       <c r="J5">
-        <v>0.04982137012915518</v>
+        <v>0.8253965642040216</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>6.649330666666667</v>
+        <v>0.06325733333333333</v>
       </c>
       <c r="N5">
-        <v>19.947992</v>
+        <v>0.189772</v>
       </c>
       <c r="O5">
-        <v>0.951263872921625</v>
+        <v>0.1747097484563341</v>
       </c>
       <c r="P5">
-        <v>0.9512638729216248</v>
+        <v>0.1747097484563341</v>
       </c>
       <c r="Q5">
-        <v>131.5944008592258</v>
+        <v>16.48591516578356</v>
       </c>
       <c r="R5">
-        <v>1184.349607733032</v>
+        <v>148.373236492052</v>
       </c>
       <c r="S5">
-        <v>0.04462315415916111</v>
+        <v>0.1416657968172158</v>
       </c>
       <c r="T5">
-        <v>0.04739326950332191</v>
+        <v>0.144204826108807</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,40 +794,40 @@
         <v>781.849991</v>
       </c>
       <c r="I6">
-        <v>0.6177346489682779</v>
+        <v>0.8108637215090658</v>
       </c>
       <c r="J6">
-        <v>0.6560823691590862</v>
+        <v>0.8253965642040216</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.03520433333333333</v>
+        <v>0.05676666666666667</v>
       </c>
       <c r="N6">
-        <v>0.105613</v>
+        <v>0.1703</v>
       </c>
       <c r="O6">
-        <v>0.005036388194404308</v>
+        <v>0.1567832460116018</v>
       </c>
       <c r="P6">
-        <v>0.005036388194404307</v>
+        <v>0.1567832460116018</v>
       </c>
       <c r="Q6">
-        <v>9.174835899942556</v>
+        <v>14.79433927414444</v>
       </c>
       <c r="R6">
-        <v>82.573523099483</v>
+        <v>133.1490534673</v>
       </c>
       <c r="S6">
-        <v>0.003111151493338324</v>
+        <v>0.1271298463312388</v>
       </c>
       <c r="T6">
-        <v>0.00330428549858963</v>
+        <v>0.12940835258273</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,45 +856,45 @@
         <v>781.849991</v>
       </c>
       <c r="I7">
-        <v>0.6177346489682779</v>
+        <v>0.8108637215090658</v>
       </c>
       <c r="J7">
-        <v>0.6560823691590862</v>
+        <v>0.8253965642040216</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.05676666666666667</v>
+        <v>0.242047</v>
       </c>
       <c r="N7">
-        <v>0.1703</v>
+        <v>0.7261409999999999</v>
       </c>
       <c r="O7">
-        <v>0.008121130064547486</v>
+        <v>0.6685070055320641</v>
       </c>
       <c r="P7">
-        <v>0.008121130064547486</v>
+        <v>0.6685070055320642</v>
       </c>
       <c r="Q7">
-        <v>14.79433927414444</v>
+        <v>63.08148159052567</v>
       </c>
       <c r="R7">
-        <v>133.1490534673</v>
+        <v>567.733334314731</v>
       </c>
       <c r="S7">
-        <v>0.005016703429648969</v>
+        <v>0.5420680783606111</v>
       </c>
       <c r="T7">
-        <v>0.005328130252997398</v>
+        <v>0.5517833855124847</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>260.6166636666667</v>
+        <v>10.026051</v>
       </c>
       <c r="H8">
-        <v>781.849991</v>
+        <v>30.078153</v>
       </c>
       <c r="I8">
-        <v>0.6177346489682779</v>
+        <v>0.03119432545686257</v>
       </c>
       <c r="J8">
-        <v>0.6560823691590862</v>
+        <v>0.03175341105018045</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -930,33 +930,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.2486943333333333</v>
+        <v>0.06325733333333333</v>
       </c>
       <c r="N8">
-        <v>0.7460829999999999</v>
+        <v>0.189772</v>
       </c>
       <c r="O8">
-        <v>0.03557860881942326</v>
+        <v>0.1747097484563341</v>
       </c>
       <c r="P8">
-        <v>0.03557860881942326</v>
+        <v>0.1747097484563341</v>
       </c>
       <c r="Q8">
-        <v>64.81388742613922</v>
+        <v>0.634221250124</v>
       </c>
       <c r="R8">
-        <v>583.324986835253</v>
+        <v>5.707991251116</v>
       </c>
       <c r="S8">
-        <v>0.0219781394298461</v>
+        <v>0.005449952753833478</v>
       </c>
       <c r="T8">
-        <v>0.02334249796563157</v>
+        <v>0.005547630457207606</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>260.6166636666667</v>
+        <v>10.026051</v>
       </c>
       <c r="H9">
-        <v>781.849991</v>
+        <v>30.078153</v>
       </c>
       <c r="I9">
-        <v>0.6177346489682779</v>
+        <v>0.03119432545686257</v>
       </c>
       <c r="J9">
-        <v>0.6560823691590862</v>
+        <v>0.03175341105018045</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>6.649330666666667</v>
+        <v>0.05676666666666667</v>
       </c>
       <c r="N9">
-        <v>19.947992</v>
+        <v>0.1703</v>
       </c>
       <c r="O9">
-        <v>0.951263872921625</v>
+        <v>0.1567832460116018</v>
       </c>
       <c r="P9">
-        <v>0.9512638729216248</v>
+        <v>0.1567832460116018</v>
       </c>
       <c r="Q9">
-        <v>1732.926373963119</v>
+        <v>0.5691454951</v>
       </c>
       <c r="R9">
-        <v>15596.33736566807</v>
+        <v>5.1223094559</v>
       </c>
       <c r="S9">
-        <v>0.5876286546154446</v>
+        <v>0.004890747602269257</v>
       </c>
       <c r="T9">
-        <v>0.6241074554418675</v>
+        <v>0.004978402856387957</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>19.92354333333333</v>
+        <v>10.026051</v>
       </c>
       <c r="H10">
-        <v>59.77063</v>
+        <v>30.078153</v>
       </c>
       <c r="I10">
-        <v>0.04722439031359254</v>
+        <v>0.03119432545686257</v>
       </c>
       <c r="J10">
-        <v>0.05015598514796319</v>
+        <v>0.03175341105018045</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,33 +1054,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.03520433333333333</v>
+        <v>0.242047</v>
       </c>
       <c r="N10">
-        <v>0.105613</v>
+        <v>0.7261409999999999</v>
       </c>
       <c r="O10">
-        <v>0.005036388194404308</v>
+        <v>0.6685070055320641</v>
       </c>
       <c r="P10">
-        <v>0.005036388194404307</v>
+        <v>0.6685070055320642</v>
       </c>
       <c r="Q10">
-        <v>0.7013950606877777</v>
+        <v>2.426775566397</v>
       </c>
       <c r="R10">
-        <v>6.31255554619</v>
+        <v>21.840980097573</v>
       </c>
       <c r="S10">
-        <v>0.0002378403618633186</v>
+        <v>0.02085362510075984</v>
       </c>
       <c r="T10">
-        <v>0.0002526050114779196</v>
+        <v>0.02122737773658489</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,25 +1089,25 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>19.92354333333333</v>
+        <v>16.977099</v>
       </c>
       <c r="H11">
-        <v>59.77063</v>
+        <v>33.954198</v>
       </c>
       <c r="I11">
-        <v>0.04722439031359254</v>
+        <v>0.05282131035632833</v>
       </c>
       <c r="J11">
-        <v>0.05015598514796319</v>
+        <v>0.03584533950516226</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1116,33 +1116,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.05676666666666667</v>
+        <v>0.06325733333333333</v>
       </c>
       <c r="N11">
-        <v>0.1703</v>
+        <v>0.189772</v>
       </c>
       <c r="O11">
-        <v>0.008121130064547486</v>
+        <v>0.1747097484563341</v>
       </c>
       <c r="P11">
-        <v>0.008121130064547486</v>
+        <v>0.1747097484563341</v>
       </c>
       <c r="Q11">
-        <v>1.130993143222222</v>
+        <v>1.073926010476</v>
       </c>
       <c r="R11">
-        <v>10.178938289</v>
+        <v>6.443556062856</v>
       </c>
       <c r="S11">
-        <v>0.0003835154159556415</v>
+        <v>0.009228397845488076</v>
       </c>
       <c r="T11">
-        <v>0.0004073232789021211</v>
+        <v>0.006262530248278794</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,25 +1151,25 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>19.92354333333333</v>
+        <v>16.977099</v>
       </c>
       <c r="H12">
-        <v>59.77063</v>
+        <v>33.954198</v>
       </c>
       <c r="I12">
-        <v>0.04722439031359254</v>
+        <v>0.05282131035632833</v>
       </c>
       <c r="J12">
-        <v>0.05015598514796319</v>
+        <v>0.03584533950516226</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1178,33 +1178,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.2486943333333333</v>
+        <v>0.05676666666666667</v>
       </c>
       <c r="N12">
-        <v>0.7460829999999999</v>
+        <v>0.1703</v>
       </c>
       <c r="O12">
-        <v>0.03557860881942326</v>
+        <v>0.1567832460116018</v>
       </c>
       <c r="P12">
-        <v>0.03557860881942326</v>
+        <v>0.1567832460116018</v>
       </c>
       <c r="Q12">
-        <v>4.954872326921111</v>
+        <v>0.9637333199</v>
       </c>
       <c r="R12">
-        <v>44.59385094229</v>
+        <v>5.7823999194</v>
       </c>
       <c r="S12">
-        <v>0.00168017810970307</v>
+        <v>0.008281496496251393</v>
       </c>
       <c r="T12">
-        <v>0.001784480175532185</v>
+        <v>0.005619948682007244</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,25 +1213,25 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>19.92354333333333</v>
+        <v>16.977099</v>
       </c>
       <c r="H13">
-        <v>59.77063</v>
+        <v>33.954198</v>
       </c>
       <c r="I13">
-        <v>0.04722439031359254</v>
+        <v>0.05282131035632833</v>
       </c>
       <c r="J13">
-        <v>0.05015598514796319</v>
+        <v>0.03584533950516226</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1240,33 +1240,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>6.649330666666667</v>
+        <v>0.242047</v>
       </c>
       <c r="N13">
-        <v>19.947992</v>
+        <v>0.7261409999999999</v>
       </c>
       <c r="O13">
-        <v>0.951263872921625</v>
+        <v>0.6685070055320641</v>
       </c>
       <c r="P13">
-        <v>0.9512638729216248</v>
+        <v>0.6685070055320642</v>
       </c>
       <c r="Q13">
-        <v>132.4782276749955</v>
+        <v>4.109255881653</v>
       </c>
       <c r="R13">
-        <v>1192.30404907496</v>
+        <v>24.655535289918</v>
       </c>
       <c r="S13">
-        <v>0.04492285642607051</v>
+        <v>0.03531141601458886</v>
       </c>
       <c r="T13">
-        <v>0.04771157668205096</v>
+        <v>0.02396286057487623</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1278,57 +1278,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>73.97801200000001</v>
+        <v>17.628366</v>
       </c>
       <c r="H14">
-        <v>147.956024</v>
+        <v>52.885098</v>
       </c>
       <c r="I14">
-        <v>0.1753486543463721</v>
+        <v>0.05484761510555757</v>
       </c>
       <c r="J14">
-        <v>0.1241559632598098</v>
+        <v>0.05583063079781116</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.03520433333333333</v>
+        <v>0.06325733333333333</v>
       </c>
       <c r="N14">
-        <v>0.105613</v>
+        <v>0.189772</v>
       </c>
       <c r="O14">
-        <v>0.005036388194404308</v>
+        <v>0.1747097484563341</v>
       </c>
       <c r="P14">
-        <v>0.005036388194404307</v>
+        <v>0.1747097484563341</v>
       </c>
       <c r="Q14">
-        <v>2.604346593785333</v>
+        <v>1.115123424184</v>
       </c>
       <c r="R14">
-        <v>15.626079562712</v>
+        <v>10.036110817656</v>
       </c>
       <c r="S14">
-        <v>0.0008831238926547501</v>
+        <v>0.009582413038521793</v>
       </c>
       <c r="T14">
-        <v>0.0006252976276266011</v>
+        <v>0.009754155462844045</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1340,22 +1340,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>73.97801200000001</v>
+        <v>17.628366</v>
       </c>
       <c r="H15">
-        <v>147.956024</v>
+        <v>52.885098</v>
       </c>
       <c r="I15">
-        <v>0.1753486543463721</v>
+        <v>0.05484761510555757</v>
       </c>
       <c r="J15">
-        <v>0.1241559632598098</v>
+        <v>0.05583063079781116</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1370,27 +1370,27 @@
         <v>0.1703</v>
       </c>
       <c r="O15">
-        <v>0.008121130064547486</v>
+        <v>0.1567832460116018</v>
       </c>
       <c r="P15">
-        <v>0.008121130064547486</v>
+        <v>0.1567832460116018</v>
       </c>
       <c r="Q15">
-        <v>4.199485147866667</v>
+        <v>1.0007035766</v>
       </c>
       <c r="R15">
-        <v>25.1969108872</v>
+        <v>9.0063321894</v>
       </c>
       <c r="S15">
-        <v>0.001424029228590268</v>
+        <v>0.008599187132244279</v>
       </c>
       <c r="T15">
-        <v>0.001008286725922095</v>
+        <v>0.008753307523356138</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1402,362 +1402,52 @@
         <v>22</v>
       </c>
       <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>17.628366</v>
+      </c>
+      <c r="H16">
+        <v>52.885098</v>
+      </c>
+      <c r="I16">
+        <v>0.05484761510555757</v>
+      </c>
+      <c r="J16">
+        <v>0.05583063079781116</v>
+      </c>
+      <c r="K16">
         <v>2</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>73.97801200000001</v>
-      </c>
-      <c r="H16">
-        <v>147.956024</v>
-      </c>
-      <c r="I16">
-        <v>0.1753486543463721</v>
-      </c>
-      <c r="J16">
-        <v>0.1241559632598098</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.2486943333333333</v>
+        <v>0.242047</v>
       </c>
       <c r="N16">
-        <v>0.7460829999999999</v>
+        <v>0.7261409999999999</v>
       </c>
       <c r="O16">
-        <v>0.03557860881942326</v>
+        <v>0.6685070055320641</v>
       </c>
       <c r="P16">
-        <v>0.03557860881942326</v>
+        <v>0.6685070055320642</v>
       </c>
       <c r="Q16">
-        <v>18.39791237566534</v>
+        <v>4.266893105202</v>
       </c>
       <c r="R16">
-        <v>110.387474253992</v>
+        <v>38.402037946818</v>
       </c>
       <c r="S16">
-        <v>0.006238661180001837</v>
+        <v>0.0366660149347915</v>
       </c>
       <c r="T16">
-        <v>0.004417296449419459</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>73.97801200000001</v>
-      </c>
-      <c r="H17">
-        <v>147.956024</v>
-      </c>
-      <c r="I17">
-        <v>0.1753486543463721</v>
-      </c>
-      <c r="J17">
-        <v>0.1241559632598098</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M17">
-        <v>6.649330666666667</v>
-      </c>
-      <c r="N17">
-        <v>19.947992</v>
-      </c>
-      <c r="O17">
-        <v>0.951263872921625</v>
-      </c>
-      <c r="P17">
-        <v>0.9512638729216248</v>
-      </c>
-      <c r="Q17">
-        <v>491.9042638506347</v>
-      </c>
-      <c r="R17">
-        <v>2951.425583103808</v>
-      </c>
-      <c r="S17">
-        <v>0.1668028400451253</v>
-      </c>
-      <c r="T17">
-        <v>0.1181050824568416</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>47.58211666666667</v>
-      </c>
-      <c r="H18">
-        <v>142.74635</v>
-      </c>
-      <c r="I18">
-        <v>0.1127829729792156</v>
-      </c>
-      <c r="J18">
-        <v>0.1197843123039854</v>
-      </c>
-      <c r="K18">
-        <v>2</v>
-      </c>
-      <c r="L18">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M18">
-        <v>0.03520433333333333</v>
-      </c>
-      <c r="N18">
-        <v>0.105613</v>
-      </c>
-      <c r="O18">
-        <v>0.005036388194404308</v>
-      </c>
-      <c r="P18">
-        <v>0.005036388194404307</v>
-      </c>
-      <c r="Q18">
-        <v>1.675096695838889</v>
-      </c>
-      <c r="R18">
-        <v>15.07587026255</v>
-      </c>
-      <c r="S18">
-        <v>0.0005680188336423414</v>
-      </c>
-      <c r="T18">
-        <v>0.0006032802963626304</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>47.58211666666667</v>
-      </c>
-      <c r="H19">
-        <v>142.74635</v>
-      </c>
-      <c r="I19">
-        <v>0.1127829729792156</v>
-      </c>
-      <c r="J19">
-        <v>0.1197843123039854</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M19">
-        <v>0.05676666666666667</v>
-      </c>
-      <c r="N19">
-        <v>0.1703</v>
-      </c>
-      <c r="O19">
-        <v>0.008121130064547486</v>
-      </c>
-      <c r="P19">
-        <v>0.008121130064547486</v>
-      </c>
-      <c r="Q19">
-        <v>2.701078156111111</v>
-      </c>
-      <c r="R19">
-        <v>24.309703405</v>
-      </c>
-      <c r="S19">
-        <v>0.0009159251926305544</v>
-      </c>
-      <c r="T19">
-        <v>0.0009727839799130409</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>47.58211666666667</v>
-      </c>
-      <c r="H20">
-        <v>142.74635</v>
-      </c>
-      <c r="I20">
-        <v>0.1127829729792156</v>
-      </c>
-      <c r="J20">
-        <v>0.1197843123039854</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M20">
-        <v>0.2486943333333333</v>
-      </c>
-      <c r="N20">
-        <v>0.7460829999999999</v>
-      </c>
-      <c r="O20">
-        <v>0.03557860881942326</v>
-      </c>
-      <c r="P20">
-        <v>0.03557860881942326</v>
-      </c>
-      <c r="Q20">
-        <v>11.83340278300556</v>
-      </c>
-      <c r="R20">
-        <v>106.50062504705</v>
-      </c>
-      <c r="S20">
-        <v>0.004012661277119095</v>
-      </c>
-      <c r="T20">
-        <v>0.004261759190167123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>47.58211666666667</v>
-      </c>
-      <c r="H21">
-        <v>142.74635</v>
-      </c>
-      <c r="I21">
-        <v>0.1127829729792156</v>
-      </c>
-      <c r="J21">
-        <v>0.1197843123039854</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M21">
-        <v>6.649330666666667</v>
-      </c>
-      <c r="N21">
-        <v>19.947992</v>
-      </c>
-      <c r="O21">
-        <v>0.951263872921625</v>
-      </c>
-      <c r="P21">
-        <v>0.9512638729216248</v>
-      </c>
-      <c r="Q21">
-        <v>316.3892275365778</v>
-      </c>
-      <c r="R21">
-        <v>2847.5030478292</v>
-      </c>
-      <c r="S21">
-        <v>0.1072863676758236</v>
-      </c>
-      <c r="T21">
-        <v>0.1139464888375425</v>
+        <v>0.03732316781161098</v>
       </c>
     </row>
   </sheetData>
